--- a/KeywordExcel/Keywords.xlsx
+++ b/KeywordExcel/Keywords.xlsx
@@ -48,9 +48,6 @@
     <t>close browser</t>
   </si>
   <si>
-    <t>verify signup link</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>verify forgot password link</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,13 +482,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -496,13 +496,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -510,13 +510,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -524,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -538,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -552,13 +552,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -566,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -580,27 +580,27 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -608,13 +608,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/KeywordExcel/Keywords.xlsx
+++ b/KeywordExcel/Keywords.xlsx
@@ -4,29 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="login" sheetId="5" r:id="rId3"/>
+    <sheet name="login2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
-  <si>
-    <t>Test Step</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
   <si>
     <t>Locator</t>
   </si>
   <si>
-    <t>action</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -88,6 +83,24 @@
   </si>
   <si>
     <t>verify forgot password link</t>
+  </si>
+  <si>
+    <t>Test Step (description)</t>
+  </si>
+  <si>
+    <t>action (keyword)</t>
+  </si>
+  <si>
+    <t>id|email</t>
+  </si>
+  <si>
+    <t>xpath|//*[@id='password']</t>
+  </si>
+  <si>
+    <t>name|btn_login</t>
+  </si>
+  <si>
+    <t>linkText|I forgot my password</t>
   </si>
 </sst>
 </file>
@@ -148,11 +161,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,184 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3" display="admin@123"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -643,12 +486,361 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3" display="admin@123"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3" display="admin@123"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>